--- a/medicine/Handicap/Élisabeth_Vincent/Élisabeth_Vincent.xlsx
+++ b/medicine/Handicap/Élisabeth_Vincent/Élisabeth_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Vincent</t>
+          <t>Élisabeth_Vincent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Vincent est une orthophoniste française spécialiste du bégaiement. Elle est vice-présidente de l'Association Parole Bégaiement (APB).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Vincent</t>
+          <t>Élisabeth_Vincent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orthophoniste exerçant en cabinet libéral, Élisabeth Vincent est l'autrice de plusieurs ouvrages de vulgarisation publiées aux éditions Milan, notamment sur le bégaiement[2]. Ses recherches et ses ouvrages sur le bégaiement font référence dans le milieu de l'orthophonie ou de la logopédie francophone[3],[4],[5],[6],[7].
-En tant que spécialiste de ce trouble, elle est devenue vice-présidente de l'Association Parole Bégaiement (APB). Créée en 1992 par l'orthophoniste Anne-Marie Simon et le médecin François Le Huche, l'APB rassemble plus de 800 adhérentes et adhérentes, thérapeutes et personnes atteintes de bégaiement et confondues, afin d'informer les personnes concernées, les professionnels et le grand public sur le sujet et afin de stimuler la recherche scientifique sur les causes du bégaiement et les méthodes de rééducation possibles[8].
-Au nom de cette association, Élisabeth Vincent participe à des colloques spécialisés[9] et sensibilise à travers les médias le public français à la question du bégaiement et de sa prise en charge[10], ainsi que des bonnes pratiques à adopter par les parents et l'entourage des enfants présentant ce type de trouble du langage[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orthophoniste exerçant en cabinet libéral, Élisabeth Vincent est l'autrice de plusieurs ouvrages de vulgarisation publiées aux éditions Milan, notamment sur le bégaiement. Ses recherches et ses ouvrages sur le bégaiement font référence dans le milieu de l'orthophonie ou de la logopédie francophone.
+En tant que spécialiste de ce trouble, elle est devenue vice-présidente de l'Association Parole Bégaiement (APB). Créée en 1992 par l'orthophoniste Anne-Marie Simon et le médecin François Le Huche, l'APB rassemble plus de 800 adhérentes et adhérentes, thérapeutes et personnes atteintes de bégaiement et confondues, afin d'informer les personnes concernées, les professionnels et le grand public sur le sujet et afin de stimuler la recherche scientifique sur les causes du bégaiement et les méthodes de rééducation possibles.
+Au nom de cette association, Élisabeth Vincent participe à des colloques spécialisés et sensibilise à travers les médias le public français à la question du bégaiement et de sa prise en charge, ainsi que des bonnes pratiques à adopter par les parents et l'entourage des enfants présentant ce type de trouble du langage.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Vincent</t>
+          <t>Élisabeth_Vincent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Bégaiement : La parole désorchestrée, Éditions Milan, coll. Les Essentiels Milan, 2004, 63 p.  (ISBN 2745915088 et 978-2745915085)
 La Mémoire : Ses mécanismes et ses troubles, Éditions Milan, coll. Les Essentiels Milan, 2005, 63 p.  (ISBN 274591989X et 978-2745919892)
